--- a/Valida Planilha Cliente/Clientes02_copia.xlsx
+++ b/Valida Planilha Cliente/Clientes02_copia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I9:O10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -416,6 +416,7 @@
     <col width="20.42578125" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="14.5703125" bestFit="1" customWidth="1" min="14" max="14"/>
     <col width="40.5703125" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -492,6 +493,11 @@
       <c r="O1" t="inlineStr">
         <is>
           <t>E-mail</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Data Nascimento</t>
         </is>
       </c>
     </row>
